--- a/Results/CircleResults/2017/Human_Circle_2017.xlsx
+++ b/Results/CircleResults/2017/Human_Circle_2017.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\CircleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\CircleResults\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Humano</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>% sobre optimo</t>
+  </si>
+  <si>
+    <t>Porcentaje optimo</t>
   </si>
 </sst>
 </file>
@@ -1074,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T56"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45:S54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U45" sqref="U45:U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>47</v>
       </c>
@@ -2255,7 +2258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>23</v>
       </c>
@@ -2312,7 +2315,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>10</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>15</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>15</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>11</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>15</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>26</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>25</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>5</v>
       </c>
@@ -2768,7 +2771,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>11</v>
       </c>
@@ -2825,7 +2828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>63</v>
       </c>
@@ -2877,8 +2880,14 @@
       <c r="S44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>200*($T34-C34)/$T34+100*C23</f>
         <v>461.66666666666663</v>
@@ -2947,8 +2956,15 @@
         <f>AVERAGE(C45:R45)</f>
         <v>452.60416666666669</v>
       </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>468</v>
+      </c>
+      <c r="U45" s="3">
+        <f>100*S45/T45</f>
+        <v>96.710292022792032</v>
+      </c>
+    </row>
+    <row r="46" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:G54" si="4">200*($T35-C35)/$T35+100*C24</f>
         <v>383.33333333333337</v>
@@ -3017,8 +3033,15 @@
         <f t="shared" ref="S46:S56" si="6">AVERAGE(C46:R46)</f>
         <v>243.33333333333334</v>
       </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>390</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" ref="U46:U54" si="7">100*S46/T46</f>
+        <v>62.393162393162399</v>
+      </c>
+    </row>
+    <row r="47" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="4"/>
         <v>475</v>
@@ -3040,55 +3063,62 @@
         <v>473.33333333333337</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" ref="H47:R47" si="7">200*($T36-H36)/$T36+100*H25</f>
+        <f t="shared" ref="H47:R47" si="8">200*($T36-H36)/$T36+100*H25</f>
         <v>475</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>473.33333333333337</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>473.33333333333337</v>
       </c>
       <c r="L47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>473.33333333333337</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="R47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475</v>
       </c>
       <c r="S47" s="3">
         <f t="shared" si="6"/>
         <v>457.08333333333331</v>
       </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>477</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" si="7"/>
+        <v>95.824598183088739</v>
+      </c>
+    </row>
+    <row r="48" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="4"/>
         <v>475</v>
@@ -3110,55 +3140,62 @@
         <v>471.66666666666663</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" ref="H48:R48" si="8">200*($T37-H37)/$T37+100*H26</f>
+        <f t="shared" ref="H48:R48" si="9">200*($T37-H37)/$T37+100*H26</f>
         <v>475</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473.33333333333337</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>445</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473.33333333333337</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473.33333333333337</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473.33333333333337</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>458.33333333333337</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>473.33333333333337</v>
       </c>
       <c r="R48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>470</v>
       </c>
       <c r="S48" s="3">
         <f t="shared" si="6"/>
         <v>434.79166666666657</v>
       </c>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>477</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" si="7"/>
+        <v>91.151292802236185</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <f t="shared" si="4"/>
         <v>481.66666666666663</v>
@@ -3180,55 +3217,62 @@
         <v>483.33333333333337</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" ref="H49:R49" si="9">200*($T38-H38)/$T38+100*H27</f>
+        <f t="shared" ref="H49:R49" si="10">200*($T38-H38)/$T38+100*H27</f>
         <v>485</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>471.66666666666663</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>481.66666666666663</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>485</v>
       </c>
       <c r="L49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>481.66666666666663</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>476.66666666666663</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>476.66666666666663</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>483.33333333333337</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>481.66666666666663</v>
       </c>
       <c r="R49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>481.66666666666663</v>
       </c>
       <c r="S49" s="3">
         <f t="shared" si="6"/>
         <v>481.04166666666674</v>
       </c>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>485</v>
+      </c>
+      <c r="U49" s="3">
+        <f t="shared" si="7"/>
+        <v>99.183848797250874</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <f t="shared" si="4"/>
         <v>475</v>
@@ -3250,55 +3294,62 @@
         <v>476.66666666666663</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" ref="H50:R50" si="10">200*($T39-H39)/$T39+100*H28</f>
+        <f t="shared" ref="H50:R50" si="11">200*($T39-H39)/$T39+100*H28</f>
         <v>486.66666666666663</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>485</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>475</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478.33333333333337</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>480</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478.33333333333337</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>481.66666666666663</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>465</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>478.33333333333337</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>486.66666666666663</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>481.66666666666663</v>
       </c>
       <c r="S50" s="3">
         <f t="shared" si="6"/>
         <v>479.6875</v>
       </c>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>487</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="7"/>
+        <v>98.498459958932244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f t="shared" si="4"/>
         <v>356.66666666666663</v>
@@ -3320,55 +3371,62 @@
         <v>366.66666666666663</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" ref="H51:R51" si="11">200*($T40-H40)/$T40+100*H29</f>
+        <f t="shared" ref="H51:R51" si="12">200*($T40-H40)/$T40+100*H29</f>
         <v>356.66666666666663</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>330</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>351.66666666666663</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>358.33333333333337</v>
       </c>
       <c r="L51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>366.66666666666663</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>356.66666666666663</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>363.33333333333337</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>348.33333333333337</v>
       </c>
       <c r="Q51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>368.33333333333337</v>
       </c>
       <c r="R51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>338.33333333333337</v>
       </c>
       <c r="S51" s="3">
         <f t="shared" si="6"/>
         <v>356.7708333333332</v>
       </c>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>370</v>
+      </c>
+      <c r="U51" s="3">
+        <f t="shared" si="7"/>
+        <v>96.424549549549511</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <f t="shared" si="4"/>
         <v>458.33333333333337</v>
@@ -3390,55 +3448,62 @@
         <v>436.66666666666663</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" ref="H52:R52" si="12">200*($T41-H41)/$T41+100*H30</f>
+        <f t="shared" ref="H52:R52" si="13">200*($T41-H41)/$T41+100*H30</f>
         <v>430</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>476.66666666666663</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>426.66666666666669</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>375</v>
       </c>
       <c r="L52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>463.33333333333337</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>445</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>451.66666666666663</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>445</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>453.33333333333337</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>451.66666666666663</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>453.33333333333337</v>
       </c>
       <c r="S52" s="3">
         <f t="shared" si="6"/>
         <v>449.0625</v>
       </c>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>490</v>
+      </c>
+      <c r="U52" s="3">
+        <f t="shared" si="7"/>
+        <v>91.645408163265301</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <f t="shared" si="4"/>
         <v>291.66666666666663</v>
@@ -3460,55 +3525,62 @@
         <v>280</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" ref="H53:R53" si="13">200*($T42-H42)/$T42+100*H31</f>
+        <f t="shared" ref="H53:R53" si="14">200*($T42-H42)/$T42+100*H31</f>
         <v>275</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>281.66666666666663</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>278.33333333333337</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>273.33333333333337</v>
       </c>
       <c r="L53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>281.66666666666663</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>253.33333333333334</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>275</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>278.33333333333337</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>270</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>291.66666666666663</v>
       </c>
       <c r="R53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>283.33333333333337</v>
       </c>
       <c r="S53" s="3">
         <f t="shared" si="6"/>
         <v>278.125</v>
       </c>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>295</v>
+      </c>
+      <c r="U53" s="3">
+        <f t="shared" si="7"/>
+        <v>94.279661016949149</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f t="shared" si="4"/>
         <v>481.66666666666663</v>
@@ -3530,55 +3602,62 @@
         <v>473.33333333333337</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" ref="H54:R54" si="14">200*($T43-H43)/$T43+100*H32</f>
+        <f t="shared" ref="H54:R54" si="15">200*($T43-H43)/$T43+100*H32</f>
         <v>451.66666666666663</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>461.66666666666663</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>443.33333333333337</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>461.66666666666663</v>
       </c>
       <c r="L54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>481.66666666666663</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>446.66666666666663</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>448.33333333333337</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>470</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>431.66666666666663</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>485</v>
       </c>
       <c r="R54" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>445</v>
       </c>
       <c r="S54" s="3">
         <f t="shared" si="6"/>
         <v>462.60416666666669</v>
       </c>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>487</v>
+      </c>
+      <c r="U54" s="3">
+        <f t="shared" si="7"/>
+        <v>94.990588637919245</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>79</v>
       </c>
@@ -3587,63 +3666,63 @@
         <v>4340</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:R55" si="15">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:R55" si="16">SUM(D45:D54)</f>
         <v>4071.6666666666665</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4333.333333333333</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3745</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4021.6666666666665</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4283.333333333333</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4295</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3931.6666666666665</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3903.3333333333335</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4333.333333333333</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3970</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4274.9999999999991</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3440.0000000000005</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3963.3333333333339</v>
       </c>
       <c r="Q55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4350</v>
       </c>
       <c r="R55" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4265</v>
       </c>
       <c r="S55" s="3">
@@ -3651,7 +3730,7 @@
         <v>4095.104166666667</v>
       </c>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>80</v>
       </c>
@@ -3660,63 +3739,63 @@
         <v>0.98079096045197744</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:R56" si="16">D55/$I14</f>
+        <f t="shared" ref="D56:R56" si="17">D55/$I14</f>
         <v>0.92015065913370997</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97928436911487748</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.84632768361581923</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90885122410546137</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96798493408662889</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97062146892655365</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.8885122410546139</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.88210922787193979</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97928436911487748</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89717514124293785</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96610169491525399</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.77740112994350297</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89566854990583822</v>
       </c>
       <c r="Q56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98305084745762716</v>
       </c>
       <c r="R56" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.9638418079096045</v>
       </c>
       <c r="S56" s="1">
